--- a/CodeSystem-what-matters-concepts.xlsx
+++ b/CodeSystem-what-matters-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-what-matters-concepts.xlsx
+++ b/CodeSystem-what-matters-concepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
